--- a/docs/Project_Info/Status Assumptions To Do.xlsx
+++ b/docs/Project_Info/Status Assumptions To Do.xlsx
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>Status</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>To Do</t>
   </si>
@@ -98,6 +95,21 @@
   </si>
   <si>
     <t>Status (%)</t>
+  </si>
+  <si>
+    <t>1st April 2023</t>
+  </si>
+  <si>
+    <t>1st May 2023</t>
+  </si>
+  <si>
+    <t>1st July 2023</t>
+  </si>
+  <si>
+    <t>1st August 2023</t>
+  </si>
+  <si>
+    <t>30th September 2023</t>
   </si>
 </sst>
 </file>
@@ -138,9 +150,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -149,6 +158,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,80 +445,80 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="62.921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.3828125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.07421875" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="9.23046875" style="3"/>
+    <col min="1" max="1" width="62.921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.4609375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.07421875" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.23046875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+      <c r="C2" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4">
-        <v>45017</v>
-      </c>
-      <c r="C2" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
-        <v>45047</v>
-      </c>
-      <c r="C3" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4">
-        <v>45108</v>
-      </c>
-      <c r="C4" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4">
-        <v>45139</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4">
-        <v>45199</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4">
         <v>0</v>
       </c>
     </row>
@@ -520,60 +532,61 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="57.3828125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.23046875" style="1"/>
+    <col min="2" max="2" width="9.23046875" style="5"/>
+    <col min="3" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.5</v>
+        <v>9</v>
+      </c>
+      <c r="B2" s="5">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.5</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="5">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.4</v>
+        <v>11</v>
+      </c>
+      <c r="B4" s="5">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5">
         <v>0</v>
       </c>
     </row>
@@ -599,10 +612,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
@@ -610,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -618,7 +631,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
@@ -626,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -634,7 +647,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
@@ -642,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
@@ -650,7 +663,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -658,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Project_Info/Status Assumptions To Do.xlsx
+++ b/docs/Project_Info/Status Assumptions To Do.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\BM shared\1. Projects\CDFW_halibut_bag_limits\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\CaliBL\docs\Project_Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A009EE90-A7B5-4AAE-ABEB-0ED26121CF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26297" windowHeight="11177"/>
+    <workbookView xWindow="2562" yWindow="2562" windowWidth="17280" windowHeight="9984" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="2" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>To Do</t>
   </si>
@@ -70,52 +71,40 @@
     <t>E. Provide co-authorship support for drafting CDFW scientists-led manuscript describing the methods and results of the application to the case-studies.</t>
   </si>
   <si>
-    <t>Obtain location covariate data for Recfin catch rate observations to disaggregate data according to bag limits (e.g. SoCal Halibut is 5, NoCal Halibut is 3)</t>
-  </si>
-  <si>
     <t>Priority</t>
   </si>
   <si>
-    <t>Organize call to present work so far and get feedback on modelling</t>
-  </si>
-  <si>
-    <t>Reach out to r4SS developers to understand which version is needed to read the lastest assessments</t>
-  </si>
-  <si>
-    <t>In consultation with CDFW, identify a suitable second species (recfin data, regulation data, assessment model available) and arrange transfer of assessment files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert halibut model to openMSE multi-OM (current demonstration is using an older generic openMSE OM to 2016 that does not include sex or fleet structure). </t>
-  </si>
-  <si>
-    <t>Undertake data analysis for second species to fit discarding model</t>
-  </si>
-  <si>
-    <t>Identify any missing regulations that need to be modelled (e.g. boat limits)</t>
-  </si>
-  <si>
     <t>Status (%)</t>
   </si>
   <si>
     <t>1st April 2023</t>
   </si>
   <si>
-    <t>1st May 2023</t>
-  </si>
-  <si>
-    <t>1st July 2023</t>
-  </si>
-  <si>
-    <t>1st August 2023</t>
-  </si>
-  <si>
-    <t>30th September 2023</t>
+    <t xml:space="preserve">1st April 2024 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st May 2024 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st June 2024 </t>
+  </si>
+  <si>
+    <t>1st Feb 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identify appropriate management levers (MPs) to test and also robustness / sensitivity operating models for each species. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalize analyses and begin drafting peer-reviewed paper. </t>
+  </si>
+  <si>
+    <t>Update CaliBL github repo and help documentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -145,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -155,12 +144,6 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,85 +424,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="62.921875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.4609375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.07421875" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9.23046875" style="2"/>
+    <col min="1" max="1" width="62.89453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.47265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.05078125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.20703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="4">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -528,65 +511,64 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="57.3828125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.23046875" style="5"/>
-    <col min="3" max="16384" width="9.23046875" style="1"/>
+    <col min="1" max="1" width="57.3671875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="B3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B4" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="B5" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="1">
         <v>0</v>
       </c>
     </row>
@@ -596,82 +578,50 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.84375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="70.765625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.23046875" style="1"/>
+    <col min="1" max="1" width="8.83984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="70.734375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
